--- a/DMSNewVSale_2025-10-30_21-17.xlsx
+++ b/DMSNewVSale_2025-10-30_21-17.xlsx
@@ -491,6 +491,21 @@
     <t>216.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>4:9</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
   </si>
   <si>
@@ -741,6 +756,15 @@
   </si>
   <si>
     <t>320.0000</t>
+  </si>
+  <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
   </si>
   <si>
     <t>SILVIRBURN CREAM 250 GM</t>
@@ -3110,7 +3134,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3120,14 +3144,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>15</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3136,7 +3160,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3153,14 +3177,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3169,14 +3193,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3186,11 +3210,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3202,31 +3226,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3235,31 +3259,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3268,31 +3292,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3301,7 +3325,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3318,14 +3342,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3334,28 +3358,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>15</v>
@@ -3367,14 +3391,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3384,14 +3408,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3400,14 +3424,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3417,11 +3441,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3433,14 +3457,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3450,14 +3474,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3466,14 +3490,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3483,14 +3507,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3499,14 +3523,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3516,14 +3540,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3532,7 +3556,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3549,14 +3573,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3565,14 +3589,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3582,11 +3606,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3598,31 +3622,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3631,7 +3655,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3644,15 +3668,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>15</v>
@@ -3664,14 +3688,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3681,14 +3705,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3697,14 +3721,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3714,11 +3738,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3730,31 +3754,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3763,28 +3787,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>15</v>
@@ -3796,7 +3820,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3813,11 +3837,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>15</v>
@@ -3829,14 +3853,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3846,14 +3870,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3862,14 +3886,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3879,14 +3903,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3895,14 +3919,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3912,7 +3936,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3928,28 +3952,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>15</v>
@@ -3961,28 +3985,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>15</v>
@@ -3994,7 +4018,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4011,11 +4035,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>15</v>
@@ -4027,14 +4051,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4044,11 +4068,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>15</v>
@@ -4060,14 +4084,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4077,11 +4101,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>15</v>
@@ -4093,14 +4117,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4110,11 +4134,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>15</v>
@@ -4126,7 +4150,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4139,15 +4163,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>15</v>
@@ -4159,28 +4183,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>15</v>
@@ -4192,14 +4216,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4209,14 +4233,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4225,31 +4249,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4258,7 +4282,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4271,15 +4295,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4291,31 +4315,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4324,31 +4348,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4357,14 +4381,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4374,11 +4398,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>15</v>
@@ -4390,14 +4414,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4407,11 +4431,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>15</v>
@@ -4423,14 +4447,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4440,11 +4464,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>15</v>
@@ -4456,14 +4480,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4473,11 +4497,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>15</v>
@@ -4489,14 +4513,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4506,11 +4530,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>15</v>
@@ -4522,14 +4546,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4539,11 +4563,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>15</v>
@@ -4555,14 +4579,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4572,14 +4596,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4588,14 +4612,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4605,11 +4629,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>15</v>
@@ -4621,14 +4645,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4638,11 +4662,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4654,14 +4678,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4671,14 +4695,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>51</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>226</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4700,7 +4724,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4708,10 +4732,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4720,31 +4744,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>15</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4753,14 +4777,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>11</v>
+        <v>292</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4770,11 +4794,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>15</v>
@@ -4786,14 +4810,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4803,11 +4827,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>15</v>
@@ -4819,14 +4843,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4836,11 +4860,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>15</v>
@@ -4852,14 +4876,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4869,14 +4893,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>296</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4885,14 +4909,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4902,14 +4926,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4918,7 +4942,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4935,14 +4959,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>15</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4951,7 +4975,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4968,14 +4992,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4984,7 +5008,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5001,11 +5025,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>15</v>
@@ -5017,14 +5041,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5034,11 +5058,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>34</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>15</v>
@@ -5050,14 +5074,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>284</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5067,51 +5091,117 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>315</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>301</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>37</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>18</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>316</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>292</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>37</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>317</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>130</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" ht="25.5" customHeight="1">
-      <c r="N113" s="13">
-        <v>8020.4250000000002</v>
-      </c>
-      <c r="O113" s="13"/>
-      <c r="P113" s="13"/>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>310</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>311</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>312</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c t="s" r="Q114" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" ht="25.5" customHeight="1">
+      <c r="N115" s="13">
+        <v>8103.585</v>
+      </c>
+      <c r="O115" s="13"/>
+      <c r="P115" s="13"/>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>318</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>319</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>320</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5650,10 +5740,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="N115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
